--- a/media/profile/uploaded_files/testing_for_admin.xlsx
+++ b/media/profile/uploaded_files/testing_for_admin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayush\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98356AF3-C57E-40E6-8538-445D7472084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE0BB6-5958-4DBA-9F8E-D5CEE0471E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>admininv4@gmail.com</t>
-  </si>
-  <si>
-    <t>admininv5@gmail.com</t>
-  </si>
-  <si>
-    <t>admininv6@gmail.com</t>
   </si>
   <si>
     <t>admininv7@gmail.com</t>
@@ -475,7 +469,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,9 +582,7 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>12349</v>
       </c>
@@ -608,9 +600,7 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>12350</v>
       </c>
@@ -629,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>12351</v>
@@ -649,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>12352</v>
@@ -669,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>12353</v>
@@ -690,12 +680,10 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F9119544-22AE-4FC0-896D-CB31A693EC97}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{F0926D67-BE7F-42BB-B651-454649881040}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{6B3D1CBA-225B-43B8-A511-D009DAB94044}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{8403B2D1-64D5-43BB-AEFA-D01541CD7708}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{0ECEFE99-261C-4C25-9FA3-3A4F88C1EE10}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{28A823A8-8445-44D2-AE1C-6EC250794747}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{ECE1740A-11B8-408B-A08E-8326400429ED}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{12D78800-8518-4E1E-BF83-733F19DECA2E}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{BACC30AB-0FDA-4CDB-81BA-CACDCB4ACBAB}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{0ECEFE99-261C-4C25-9FA3-3A4F88C1EE10}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{28A823A8-8445-44D2-AE1C-6EC250794747}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{ECE1740A-11B8-408B-A08E-8326400429ED}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{BACC30AB-0FDA-4CDB-81BA-CACDCB4ACBAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
